--- a/План.xlsx
+++ b/План.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79112\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79112\Desktop\Rep\Magistrum_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDB887-4F86-4B8D-986C-A01CFEC483EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D98618-D5A5-4413-8094-D86176392065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий план" sheetId="1" r:id="rId1"/>
     <sheet name="Накидать тг бота" sheetId="2" r:id="rId2"/>
+    <sheet name="Подкрепить таблицу и пошаманть " sheetId="3" r:id="rId3"/>
+    <sheet name="Склеить какую-нибудь демку" sheetId="4" r:id="rId4"/>
+    <sheet name="Допиливать демку, накидывать фу" sheetId="5" r:id="rId5"/>
+    <sheet name="Выкатить нормальную демоверсию " sheetId="6" r:id="rId6"/>
+    <sheet name="Маленькие шлифовки и пожелания" sheetId="7" r:id="rId7"/>
+    <sheet name="Первая версия" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Действие</t>
   </si>
@@ -92,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,56 +370,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,111 +752,120 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>45547</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>45561</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <f>C2</f>
         <v>45561</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>45568</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <f>C3</f>
         <v>45568</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>45575</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <f t="shared" ref="B5:B10" si="0">C4</f>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B8" si="0">C4</f>
         <v>45575</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <f t="shared" si="0"/>
         <v>45582</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="22">
         <v>45582</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>45582</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <v>45596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="21">
         <f t="shared" si="0"/>
         <v>45596</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="22">
         <v>45596</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Накидать тг бота'!A1" display="Накидать тг бота" xr:uid="{252F7B44-D279-4CB1-9F86-73B1D5AA6887}"/>
+    <hyperlink ref="A3" location="'Подкрепить таблицу и пошаманть '!A1" display="Подкрепить таблицу и пошаманть с ней" xr:uid="{C21BEC09-CEB1-433B-B1FA-864D049508CA}"/>
+    <hyperlink ref="A4" location="'Склеить какую-нибудь демку'!A1" display="Склеить какую-нибудь демку" xr:uid="{904F40FD-2A08-47DD-B733-E65DB8C362DC}"/>
+    <hyperlink ref="A5" location="'Допиливать демку, накидывать фу'!A1" display="Допиливать демку, накидывать функционал и тестить" xr:uid="{D5D4BD11-1C54-4FCD-B96B-EF419AA558D1}"/>
+    <hyperlink ref="A6" location="'Выкатить нормальную демоверсию '!A1" display="Выкатить нормальную демоверсию с полным функционалом" xr:uid="{D4C8A39D-2E9B-4D3E-A8EF-D83C70228BCF}"/>
+    <hyperlink ref="A7" location="'Маленькие шлифовки и пожелания'!A1" display="Маленькие шлифовки и пожелания" xr:uid="{A1B2B8CB-510C-4B98-94FC-39E96980522A}"/>
+    <hyperlink ref="A8" location="'Первая версия'!A1" display="Первая версия" xr:uid="{8B9324CC-AF1E-4FE4-ACF9-654791ABA25B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -786,44 +874,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248B9564-7C0E-4D3A-84A3-E7E66BE2FEC8}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD92EA6D-64E6-4A8B-BEA9-CA4C45FB66C8}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D009D6-2A57-4D21-855A-651B6770AD1A}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831282BF-F6DC-45E3-B227-0BF3C02A9375}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD008A25-1F95-47FD-8158-B3A7C06A1F17}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AEA20C-36C9-4420-B2BF-B503278484C1}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88702C5-13B9-453E-A437-159C543C37E9}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/План.xlsx
+++ b/План.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79112\Desktop\Rep\Magistrum_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D98618-D5A5-4413-8094-D86176392065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CFF8B3-29E0-4791-8870-4251092C5004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий план" sheetId="1" r:id="rId1"/>
-    <sheet name="Накидать тг бота" sheetId="2" r:id="rId2"/>
-    <sheet name="Подкрепить таблицу и пошаманть " sheetId="3" r:id="rId3"/>
-    <sheet name="Склеить какую-нибудь демку" sheetId="4" r:id="rId4"/>
-    <sheet name="Допиливать демку, накидывать фу" sheetId="5" r:id="rId5"/>
-    <sheet name="Выкатить нормальную демоверсию " sheetId="6" r:id="rId6"/>
-    <sheet name="Маленькие шлифовки и пожелания" sheetId="7" r:id="rId7"/>
-    <sheet name="Первая версия" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Действие</t>
   </si>
@@ -73,24 +66,6 @@
   </si>
   <si>
     <t>Первая версия</t>
-  </si>
-  <si>
-    <t>Подзадачи</t>
-  </si>
-  <si>
-    <t>Каркас бота</t>
-  </si>
-  <si>
-    <t>БД</t>
-  </si>
-  <si>
-    <t>Функции выдачи инфы</t>
-  </si>
-  <si>
-    <t>Функции изменения данных через бота</t>
-  </si>
-  <si>
-    <t>Функция ответа преподов</t>
   </si>
 </sst>
 </file>
@@ -148,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -325,49 +300,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,22 +382,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,18 +676,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +698,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -784,8 +709,8 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -796,8 +721,8 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -808,8 +733,8 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
@@ -820,20 +745,20 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>45582</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>45582</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -844,15 +769,15 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>45596</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>45596</v>
       </c>
     </row>
@@ -868,311 +793,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248B9564-7C0E-4D3A-84A3-E7E66BE2FEC8}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD92EA6D-64E6-4A8B-BEA9-CA4C45FB66C8}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D009D6-2A57-4D21-855A-651B6770AD1A}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831282BF-F6DC-45E3-B227-0BF3C02A9375}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD008A25-1F95-47FD-8158-B3A7C06A1F17}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AEA20C-36C9-4420-B2BF-B503278484C1}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88702C5-13B9-453E-A437-159C543C37E9}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>